--- a/input.xlsx
+++ b/input.xlsx
@@ -1,47 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="Samples" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Codes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Samples" sheetId="1" r:id="rId1"/>
+    <sheet name="Codes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Extraction Group</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Assay Code</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>code1</t>
+  </si>
+  <si>
+    <t>code2</t>
+  </si>
+  <si>
+    <t>code3</t>
+  </si>
+  <si>
+    <t>assay1</t>
+  </si>
+  <si>
+    <t>assay2</t>
+  </si>
+  <si>
+    <t>assay3</t>
+  </si>
+  <si>
+    <t>ext1</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>ext2</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>ext3</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>ext4</t>
+  </si>
+  <si>
+    <t>id4</t>
+  </si>
+  <si>
+    <t>code4</t>
+  </si>
+  <si>
+    <t>ext5</t>
+  </si>
+  <si>
+    <t>id5</t>
+  </si>
+  <si>
+    <t>code5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
+        <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
+        <fgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,100 +127,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00339966"/>
-          <bgColor rgb="00339966"/>
+          <fgColor rgb="FF339966"/>
+          <bgColor rgb="FF339966"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00C0C0C0"/>
-          <bgColor rgb="00C0C0C0"/>
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF339966"/>
+          <bgColor rgb="FF339966"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,51 +469,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Extraction Group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sample ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Assay Code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Paste Data Here</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>NOT(ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -492,78 +558,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Assay</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>code1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>code2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>code3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>assay1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>assay2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>assay3</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:ZZ1">
-    <cfRule type="expression" priority="1" dxfId="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>NOT(ISBLANK(B1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5000">
-    <cfRule type="expression" priority="2" dxfId="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>NOT(ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" priority="3" dxfId="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>NOT(ISBLANK(B2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,77 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="11445" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="270" yWindow="630" windowWidth="24615" windowHeight="11445" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Samples" sheetId="1" r:id="rId1"/>
-    <sheet name="Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Samples" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Codes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>Extraction Group</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
-    <t>Assay Code</t>
-  </si>
-  <si>
-    <t>Paste Data Here</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
-    <t>code1</t>
-  </si>
-  <si>
-    <t>code2</t>
-  </si>
-  <si>
-    <t>code3</t>
-  </si>
-  <si>
-    <t>assay1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>assay2</t>
-  </si>
-  <si>
-    <t>assay3</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,14 +57,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -148,13 +313,92 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FF0000"/>
+          <bgColor rgb="00FF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0000FF00"/>
+          <bgColor rgb="0000FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,37 +686,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Extraction Group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sample ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Assay Code</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Paste Data Here</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C5000">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" priority="1" dxfId="30" stopIfTrue="1">
       <formula>NOT(ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -481,95 +737,268 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Assay</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>code1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>code2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>code3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>code6</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>assay1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>assay2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>assay3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>assay7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:ZZ1">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" priority="1" dxfId="28" stopIfTrue="1">
       <formula>NOT(ISBLANK(B1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5000">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" priority="2" dxfId="28" stopIfTrue="1">
       <formula>NOT(ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>IF(B2="N", "True", "")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" priority="3" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E4">
+    <cfRule type="expression" priority="7" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F4">
+    <cfRule type="expression" priority="11" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" dxfId="1" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22" dxfId="0" stopIfTrue="1">
+      <formula>IF(B2="Y", "True", "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E5">
+    <cfRule type="expression" priority="31" dxfId="31" stopIfTrue="1">
+      <formula>IF(B2="N", "True", "")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" dxfId="32" stopIfTrue="1">
       <formula>IF(B2="Y", "True", "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" error="Invalid Entry - Use Dropdown" sqref="B2:D4">
+    <dataValidation sqref="B2:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" error="Invalid Entry - Use Dropdown" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
